--- a/Estados e REGEX.xlsx
+++ b/Estados e REGEX.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinicius.mor\Desktop\Gomoku-Pygame\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinicius.pmoraes3\Documents\GitHub\Gomoku-Pygame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A8A9FC-37C5-4F64-A44D-9974CBBB2D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394D91A4-F2F1-4A28-BF60-1D752BE19851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{91C206F7-65C5-4E8C-9665-F5EE842E6457}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{91C206F7-65C5-4E8C-9665-F5EE842E6457}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <si>
     <t>10000</t>
   </si>
@@ -325,6 +325,12 @@
   </si>
   <si>
     <t>1{5}</t>
+  </si>
+  <si>
+    <t>00111100</t>
+  </si>
+  <si>
+    <t>9</t>
   </si>
 </sst>
 </file>
@@ -342,7 +348,9 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Helvetica"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -365,7 +373,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -379,6 +387,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -693,424 +704,436 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D90E04D-AA53-4501-B3A2-7332500C8837}">
-  <dimension ref="A1:B59"/>
+  <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62:B62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="1"/>
+    <col min="3" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B36" s="2"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
         <v>59</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
         <v>60</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
         <v>61</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
         <v>63</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
         <v>65</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
         <v>67</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
         <v>71</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
         <v>73</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
         <v>75</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
         <v>77</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
         <v>79</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
         <v>81</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
         <v>83</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
         <v>85</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
         <v>87</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
         <v>89</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
         <v>91</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B58" s="2"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B61" s="7"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B62" s="6" t="s">
         <v>95</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="A61:B61"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A41:B41"/>
@@ -1131,7 +1154,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
